--- a/resources/data-imports/guide-quests.xlsx
+++ b/resources/data-imports/guide-quests.xlsx
@@ -68,37 +68,37 @@
     <t>Skills and Factions</t>
   </si>
   <si>
-    <t>It’s been a long week, a week of slogging through the mud. You managed to slaughter a few critters around town, gain some gold and buy some better equipment.&lt;br /&gt; &lt;br /&gt; After a long week it’s nice to relax by the fire after a long hot bath and a good meal. Still no Sign of this supposed Guide, but what do you need him for? You managed to figure a few things out on your own.&lt;br /&gt; &lt;br /&gt; As you sit and stare into the fire, you let your thoughts drift away from the battles and the blood and the death. All of it. You let it all slip away like butter slipping off warm bread.&lt;br /&gt; &lt;br /&gt; The room around you seems to fade away, the voices, the sounds, the clanking of dishes and the laughter all fades from existence. There is you and this fire that you are so fixated and transfixed by. That’s when you hear the voice: “Child”.&lt;br /&gt; &lt;br /&gt; You jump back in your seat and look around, but the Inn is empty and there’s no one around. Everyone vacated. You turn back to the fire and see a man wearing colorful clothing siting in a leather chair by the fire beside you. His red leather vest covers a green tunic. His brown leather pants end at black pointed leather shoes with a bit of heel. He has a black fedora with a red feather sticking out and looks as if he has been baked in the sun. His skin is leather, eyes are green and sharp. He looks well past 80, how old you cannot say.&lt;br /&gt; &lt;br /&gt; “Slogging through the mud, are we? Having fun?” He doesn’t wait for you to respond. His voice is horse and ageing. “I didn’t think so. That’s why I want you to go on an exploration. Earn some notoriety for killing local creatures and learn – for god’s sake – to hit something better than you currently are.”&lt;br /&gt; &lt;br /&gt; He gets up from his chair and before you can ask questions or protest the Inn is back to the way it was. People chatting, dishes clinking, laughter, and drunken antics. What just happened and who was that? Was that The Guide?</t>
-  </si>
-  <si>
-    <t>This quest is easy, like the last one. Instead of endlessly clicking Attack repeatedly, first:&lt;br /&gt; &lt;br /&gt; On Pc select Character Sheet tab and wait for the inventory to load in. If on mobile, click Character Sheet tab and select Inventory Management.&lt;br /&gt; &lt;br /&gt; Now, if you haven’t investigated the various inventory tabs and what they do, but more importantly check your inventory for any unequipped dropped items. Items from monster’s scale in level with the player to a point. However, it is all random.&lt;br /&gt; &lt;br /&gt; Now, on the same page, click train beside Accuracy. For mobile, click the red x, to dismiss inventory management and now Select Skill Management. Follow the same steps to train.&lt;br /&gt; &lt;br /&gt; For more info click the relevant help docs in the sections. Alas, Accuracy helps you hit things, Casting Accuracy Helps Damage spells hit and Dodge helps you avoid enemy attacks.&lt;br /&gt; &lt;br /&gt; With some better equipment and accuracy being trained, head back to the game tab and:&lt;br /&gt; &lt;br /&gt; On Pc, click the Exploration button, on mobile select exploration from the drop down.&lt;br /&gt; &lt;br /&gt; Select a monster you can kill, an hour for the length of time and Attack as your type. Start exploration.&lt;br /&gt; &lt;br /&gt; Read the supplied help link for more info on the exploration section.&lt;br /&gt; &lt;br /&gt; While this runs, check out other aspects of the game such as your skills, crafting and so on. When this is done you should have a Green unique item in your inventory, equip this if it is better then anything you have equipped, damage and stat wise, if not wait for the next one and move this to a set, theres a move button when you click on items in the chat or the inventory.</t>
-  </si>
-  <si>
-    <t>Crafting and Enchanting</t>
-  </si>
-  <si>
-    <t>You fall into the mud with the latest enemy from your hunt. Last one down! Now to head to town and collect that fame and fortune. Still can’t hit anything worth shit. That will come in time and with better gear.&lt;br /&gt; &lt;br /&gt; The forest around you disappears into a long stretch of summer fields with wild grasses and crickets. The heat of the sun beats down on you as you emerge from the cool and breezy forest.&lt;br /&gt; &lt;br /&gt; He appears out of nowhere, clad in leather armour, all green, matching this time. The Guide wears the familiar fedora and boots, but his garments seem better aligned. He also seems Younger, not the old man you met under mysterious circumstances, which still plague you to this day.&lt;br /&gt; &lt;br /&gt; He approaches through the grasses and matches your pace as he walks beside you. Neither saying anything. As you look over at him you see a much younger, handsome man. How? How did he change from this old man to this young slightly built man before you? What magics is this and how do you master it?&lt;br /&gt; &lt;br /&gt; The Guide interrupts your thoughts drawing your attention to his sun beaten, freckled handsome face. You can trace the freckles across the bridge of his nose. He looks like a boy. He stands at about 25 years. “You learned something about aim at least in all these journeys of yours?” He laughs and slaps you on the back. “You have a long way to go kid.”&lt;br /&gt; &lt;br /&gt; There’s a silence between the two of you before he states, “There are rewards in these factions’ child. Complete them. People depend on you having them done.”&lt;br /&gt; &lt;br /&gt; He looks at you as if you are supposed to know what he’s saying. Fearing he might just disappear again you lock onto his green eyes which tinkle in the summer sun. “Stop being mesmerized and listen; I want you to create your own gear.” He pauses and then continues, “enchant it with magical enchantments.”&lt;br /&gt; &lt;br /&gt; He goes quiet and stares off into the distance, you ask him point blankly why craft or enchant anything when the drop and the gear from the shops and various merchants on the roads will suffice. He laughs. “Child, you are a funny one.” He looks down at his shoes, “I created these, all of this. It’s all enchanted with powerful enchantments you can’t get off enemies or from shops. This is high end gear.” He states all this with a proud glean in his eye and smirk on his face. “Mismatched as I may sometimes appear to be, the magics woven into my gear are carefully chosen.”&lt;br /&gt; &lt;br /&gt; You look at him, studying his gear, it seems normal, like yours and everyone else’s you have seen. Nothing out of the ordinary, but it does have a sense, a feeling and out of place – magical and twisted sense to it.&lt;br /&gt; &lt;br /&gt; The two of you walk in silence for a time while you ponder his words. Should I craft my own gear?</t>
-  </si>
-  <si>
-    <t>Oh hello again. Another easy quest, albeit time consuming. There is no automation for this.&lt;br /&gt; &lt;br /&gt; The Faction level part of this quest you should already have done, if not just set exploration to another hour and continue till you do.&lt;br /&gt; &lt;br /&gt; That Green item you got is called a unique, this I roughly mid-level gear and for a low-level player like you this is a godly item that will scale over time. Percentage based gear tends to do that.&lt;br /&gt; &lt;br /&gt; You can get 25 of these items by simply killing monsters through exploration on various planes. There are 5 levels to each faction and their points required do double every level.&lt;br /&gt; &lt;br /&gt; Now on to the part you can do while exploration is running. Crafting and Enchanting.&lt;br /&gt; &lt;br /&gt; On PC you can see the Craft/Enchant blue drop down. On mobile, select Craft from the main actions list to get the same drop down.&lt;br /&gt; &lt;br /&gt; Now select Craft from that drop down, select Weapons, Select Weapon again and then Select the first item. Phew, what just happened?&lt;br /&gt; &lt;br /&gt; Weapons have two types: Single hand (Weapons) and two handed (Bows, Staves and Hammers.) You can read more about this in the help docs for crafting which, there is a link supplied when crafting the item.&lt;br /&gt; &lt;br /&gt; You will fail a lot at first. Further down the monster list is a chance to get a Weapons Smith Book which increases crafting chance. Blacksmith class also gives a bonus to Weapon and Armour Crafting.&lt;br /&gt; &lt;br /&gt; You will end up crafting the same item over and repeatedly, failing and succeeding. Do this till your inventory is full.&lt;br /&gt; &lt;br /&gt; Then, from that same blue menu, select Enchanting. Now select the item to enchant a prefix and a suffix. If you select both and succeed, you get double the XP. Do that till you reach the bottom of the list. Now go to your inventory and disenchant all those items.&lt;br /&gt; &lt;br /&gt; This is the game loop. There is gear beyond the shop, enchanted gear that you cannot get without enchanting and rafting. Read the relevant help links for crafting an enchanting when opening the sections and create yourself some gear.&lt;br /&gt; &lt;br /&gt; Enchanting is not needed for this quest but it is a part of the process of gearing your character.</t>
-  </si>
-  <si>
-    <t>Basics of Alchemy and Quests</t>
-  </si>
-  <si>
-    <t>You have been working all week on crafting your own gear, you’re not the best at it and you tend to fail more than normal, but if you keep at it slowly, bit by bit you know you will get better.&lt;br /&gt; &lt;br /&gt; You learned the basics from a wondering Blacksmith, and you managed to even enchant a few pieces after saving an enchantress from the Goblins.&lt;br /&gt; &lt;br /&gt; For the last week all you have done is craft, enchant, craft, enchant, craft …&lt;br /&gt; &lt;br /&gt; A wondering merchant taught you how to disenchant your magically imbued gear for a new kind of Currency, Gold Dust. What could this be used for you wonder.&lt;br /&gt; &lt;br /&gt; Still no sign of The Guide since you last spoke. Is he a changeling, you wonder? His ability to shift his appearance, you have so far found no such enchantment that can bestow the youthful appearance on another.&lt;br /&gt; &lt;br /&gt; You put it to one side for the moment while you think back to what the Blacksmith told you. “Some items can be made even more powerful, but you need special oils to use on them. These oils can only be obtained through Alchemy.”&lt;br /&gt; &lt;br /&gt; He didn’t elaborate much more as he didn’t know much more than what he told you. You searched around town all week for answers but turned up nothing. What is Alchemy?</t>
-  </si>
-  <si>
-    <t>This quest will have you complete a quest and unlock a crafting skill, that right now you won’t be able to use. You are way to week to take on the creatures needed for the currency. You will get there.&lt;br /&gt; &lt;br /&gt; First the quest.&lt;br /&gt; &lt;br /&gt; For PC and Mobile players, click the Quests tab at the top. For mobile you can scroll this section to see all the quests.&lt;br /&gt; &lt;br /&gt; As you can tell Quests are laid out in a tree fashion, you work your way top down. All quests tell you explicitly what they want and how to complete them.&lt;br /&gt; &lt;br /&gt; The quest I want you to worry about is in the One-Off Quests tab on the Quests section. The quest is called I dream of Alchemy.&lt;br /&gt; &lt;br /&gt; Click it to learn the requirements. You will need a quest item, click the requirements tab of the quest, then click the help icon on the required item. Follow those instructions.&lt;br /&gt; &lt;br /&gt; Alchemy, once you can take on Celestials, allows you to create items that give your character boons that last for a specific amount of time. Other items can be used on items at a special crafting station, much later in the game. Finally, some items can be used on other player kingdoms, while you have a kingdom, to do damage.&lt;br /&gt; &lt;br /&gt; For now, just complete the quest, oh and get some faction points. This will take you some time. Keep crafting, enchanting and then disenchanting until you have completed the requirements and are strong enough to get to Labyrinth.</t>
-  </si>
-  <si>
-    <t>The aim of the century</t>
-  </si>
-  <si>
-    <t>It has been a month since you last heard from The Guide. You have been to Labyrinth; you have been busy crafting and enchanting. You have killed more enemies than you can count and have some notoriety on at least two planes.&lt;br /&gt; &lt;br /&gt; You even unlocked a new crafting ability, Alchemy. Alas you know you are way too weak to take on anything of any importance.&lt;br /&gt; &lt;br /&gt; You still have issues killing things. Making sure to keep up with your gear, always enchanting new gear and praying something good drops off the enemy.&lt;br /&gt; &lt;br /&gt; It’s been a long month.&lt;br /&gt; &lt;br /&gt; Settling into your make-shift camp you stare up at the night sky, wondering: Where the hell is The Guide? You drift off into a deep slumber.</t>
-  </si>
-  <si>
-    <t>By now you should have been crafting, enchanting, exploring, and leveling your skills. It is vital that you pay attention to two main skills: Accuracy – Non-Casters and Casting Accuracy if you are a caster.&lt;br /&gt; &lt;br /&gt; You will need to balance both skills as a caster. You should be familiar with how enchanting works by now, if not check the help docs and enchant gear that gives your accuracy a boost if you’re a caster or casting accuracy if you have at least level 100 Accuracy.&lt;br /&gt; &lt;br /&gt; This time were going to do more quests, but on Surface. So open that Quest tree and look for this quest: Goblins Accuracy.&lt;br /&gt; &lt;br /&gt; This quest is on the far-right side. You will need to start with Hunting expedition and work your way down.&lt;br /&gt; &lt;br /&gt; Finally, once you have this quest item, I want you level Accuracy to level 75 (if you are higher than 75, focus on getting the quest item and leveling dodge/casting accuracy.)</t>
+    <t>It’s been a long week, a week of slogging through the mud. You managed to slaughter a few critters around town, gain some gold and buy some better equipment.&lt;br /&gt; &lt;br /&gt; After a long week it’s nice to relax by the fire after a long hot bath and a good meal. Still no Sign of this supposed Guide, but what do you need him for? You managed to figure a few things out on your own.&lt;br /&gt; &lt;br /&gt; As you sit and stare into the fire, you let your thoughts drift away from the battles and the blood. All of it. You let it all slip away like butter slipping off warm bread.&lt;br /&gt; &lt;br /&gt; The room around you seems to fade away, the voices, the sounds, the clanking of dishes and the laughter all fades from existence. There is you and this fire that you are so fixated and transfixed by. That’s when you hear the voice: “Child”.&lt;br /&gt; &lt;br /&gt; You jump back in your seat and look around, but the Inn is empty and there’s no one around. Everyone vacated. You turn back to the fire and see a man wearing colorful clothing siting in a leather chair by the fire beside you. His red leather vest covers a green tunic. His brown leather pants end at black pointed leather shoes with a bit of heel. He has a black fedora with a red feather sticking out and looks as if he has been baked in the sun. His skin is leather, eyes are green and sharp. He looks well past 80, how old you cannot say.&lt;br /&gt; &lt;br /&gt; “Slogging through the mud, are we? Having fun?” He doesn’t wait for you to respond. His voice is horse and ageing. “I didn’t think so. That’s why I want you to go on an exploration. Earn some notoriety for killing local creatures and learn – for god’s sake – to hit something better than you currently are.”&lt;br /&gt; &lt;br /&gt; He gets up from his chair and before you can ask questions or protest the Inn is back to the way it was. People chatting, dishes clinking, laughter, and drunken antics. What just happened and who was that? Was that The Guide?</t>
+  </si>
+  <si>
+    <t>This quest is easy, like the last one. Instead of endlessly clicking Attack repeatedly, first:&lt;br /&gt; &lt;br /&gt; On Pc select Character Sheet tab and wait for the inventory to load in. If on mobile, click Character Sheet tab and select Inventory Management.&lt;br /&gt; &lt;br /&gt; Now, if you haven’t investigated the various inventory tabs and what they do - you should. however, more importantly check your inventory for any unequipped dropped items. Items from monster’s scale in level with the player to a point. However, it is all random. So you never know, you might have gotten something nice.&lt;br /&gt; &lt;br /&gt; Now, on the same page, click train beside Accuracy. For mobile, dismiss the inventory management and now select Skill Management. Follow the same steps to train.&lt;br /&gt; &lt;br /&gt; Sacrifice only 10% XP, click the help icon beside the label to read more information. Essentially you Sacrifice a small amount of your XP to add to the Base Skill XP which then adds on top of any skill bonuses to give you, your total skill XP for one successful kill. Example: 10% Sacrifice + 15 % Bonus + 25 (Base) = What you get per kill.&lt;br /&gt; &lt;br /&gt; If there were no drops, head to the shop and buy some better equipment. At this stage I would take a moment to open the Help Docs: click/tap the circle icon in the nav, click/tap on help I’m stuck. Now click Character Information in the side bar, click Races and classes. On this page scroll down to the classes table, find yours and click it. Now read the Tips section. That will give you guidance on gear you should get for your class. Now with that in hand, go to the shop and buy better gear.&lt;br /&gt; &lt;br /&gt; Next up:&lt;br /&gt; &lt;br /&gt; On Pc, click the Exploration button, on mobile select exploration from the drop down.&lt;br /&gt; &lt;br /&gt; Select a monster you can kill, an hour for the length of time and Attack as your type. Start exploration.&lt;br /&gt; &lt;br /&gt; Read the supplied help link for more info on the exploration section.&lt;br /&gt; &lt;br /&gt; While this runs, check out other aspects of the game such as your skills, crafting and so on. When this is done you should have a Green unique item in your inventory, equip this if it is better than anything you have equipped, damage and stat wise, if not wait for the next one and move this to a set, there’s a move button when you click on items in the chat or the inventory.&lt;br /&gt; &lt;br /&gt; Green items are known as Uniques. Players can only have one equipped. Factions, every level you gain will give you a 10 billion Gold Unique that is completely randomly rolled and could be amazing or trash. Remember how we were looking at races and classes? If you have that page still open, click Game Systems, Click Random Enchantments (Uniques) under Crafting/Enchanting.</t>
+  </si>
+  <si>
+    <t>The Art of Crafting</t>
+  </si>
+  <si>
+    <t>Exploring is hard work, but alas you have managed to slaughter quite the number of enemies. You even managed to gain a bit of notoriety and a shiny new item to boot.&lt;br /&gt; &lt;br /&gt; You spent the last week relaxing on the edge of town in a makeshift camp, not because you’re avoiding the town or the people, but because even a great warrior needs a moment to themselves, a moment to reflect. A moment to enjoy the sounds and sights as well as the smells of nature.&lt;br /&gt; &lt;br /&gt; You can hear the birds chirping in the trees, the glimmer of sunlight that dances through the treetops, the smell of the dying campfire and bits of crackling embers left.&lt;br /&gt; &lt;br /&gt; You are lost in thought, remembering a conversation you had with a passing blacksmith. He told you about the art of crafting, making your own gear and creating stronger and better gear. You laughed at him and said the shop is all you need.&lt;br /&gt; &lt;br /&gt; “Oh child, you are so naive if you think the gear you can buy in the shop is of any use. It only goes so far. You need better stronger and more durable gear.”&lt;br /&gt; &lt;br /&gt; You remember something about magic being involved to make the gear even more potent. There are words, incantations, enchantments you can apply. He laid so much information on you, only now do you have a moment to reflect on it.&lt;br /&gt; &lt;br /&gt; “Don’t worry about trying to enchant the gear, just focus on creating the gear. If you haven’t been yet – go to the: Ruined Port City of Kalize, there’s a treasure you can find there.”&lt;br /&gt; &lt;br /&gt; You rise to greet the afternoon breeze that gently makes its way through the forest, rustling the leaves as it passes filling your nose within the smells of summer.</t>
+  </si>
+  <si>
+    <t>Crafting is the second most set of essential skills behind Enchanting. &lt;br /&gt; &lt;br /&gt; The shop only goes up 2 Billion Gold, while you can at later levels craft to 36 Billion Gold (level 400, top end gear). &lt;br /&gt; &lt;br /&gt; While it is true that monsters drops will scale with you to a max crafting level of 300, you A) have to be in Purgatory to get those kinds of drops and B) it's all random loot, it could be good, could be bad, could be so-so. You need to spend time leveling crafting. You will out craft the shop some where in the level 200's of each crafting skill.&lt;br /&gt; &lt;br /&gt; For this Quest here’s what I want you to do:&lt;br /&gt; &lt;br /&gt; On PC, either move or teleport to these coordinates: (X/Y) 32/368&lt;br /&gt; &lt;br /&gt; On Mobile, select Map Movement from the primary action drop down. Open Teleport and enter in the coordinates if you do not have the gold. Kill till you do.&lt;br /&gt; &lt;br /&gt; Now that you are here, you should have seen chat update. You got a quest item. Quest items can be seen from the inventory under the quest items tab. This item will give you a slight boost to weapon crafting.&lt;br /&gt; &lt;br /&gt; Now that you have it.&lt;br /&gt; &lt;br /&gt; On Pc, click the blue drop down to select craft. Now select weapons from the list. Select Broken Dagger and Click Craft. Repeat the clicking of the button. Pay attention to the sever messages tab as you craft.&lt;br /&gt; &lt;br /&gt; There is no automation for any form of crafting.&lt;br /&gt; &lt;br /&gt; For Mobile, click the actions drop down and select craft, now follow the same steps above.&lt;br /&gt; You will fail more than you succeed at first, but the quest item should help you a bit. If you would like to see how much:&lt;br /&gt; &lt;br /&gt; Click Character Sheet Tab, Click the crafting skills Tab for the skills section (mobile, select Skill Management, then tap the crafting skills tab) Click on Weapon Crafting to see the skill bonus (applied to your chance to craft) and Skill XP Bonus. You care about the bonus to succeed and the XP bonus to level quickly.&lt;br /&gt; &lt;br /&gt; For now, focus on crafting broken daggers, as you gain levels you unlock new items. Click the help button associated with the crafting action to learn more.&lt;br /&gt; &lt;br /&gt; Because there is not automation for any of the crafting options, it is suggested players put on some Netflix, turn on automation, then go back to craft while automation runs.</t>
+  </si>
+  <si>
+    <t>The Enchantress</t>
+  </si>
+  <si>
+    <t>It’s been two weeks. You slaughter, you kill, you craft. You repeat over and over and over again. Slowly you start to get better at crafting.&lt;br /&gt; &lt;br /&gt; While in the local Tavern one night, you met a beautiful dark haired young woman. Her dress was as black as her silky-smooth hair. Her features soft, gentle, and kind.&lt;br /&gt; &lt;br /&gt; “Have you heard about Enchanting? Do you know what an Enchantress is?” She asked as you two were sharing a platter of assorted cheeses, meats, and bread with cups of ale. You nodded and explained it was why you were here, to learn the ways, to understand the intricacies of the magics that flow through one’s gear.&lt;br /&gt; &lt;br /&gt; “It’s quite simple. All magic comes from The Creator, all enchantments are his design, you weave his magics through your gear and he provides you with the blessing of the enchantment.”&lt;br /&gt; &lt;br /&gt; It sounds simple enough. The two of you continue sharing your meal and talking about the magics and processes behind Enchanting. Come morning you know you have work to do, but a little pleasure never hurt, right?</t>
+  </si>
+  <si>
+    <t>This is like Crafting, so follow the same steps to open the Enchanting as you did for crafting. If you need to review previous quests for previous instructions, click the hamburger menu icon at the top left. Click Quest Log, click Completed Guide Quests.&lt;br /&gt; &lt;br /&gt; Enchanting is the most essential aspect. So, once you have the enchanting section open click the help and keep it open. Investigate the over 300 enchantments that you can apply to your items. There are even enchantments for specific types of play style which becomes important later.&lt;br /&gt; &lt;br /&gt; Without enchanting, with only depending on drops from monsters – unless you are extremely lucky, you are going to have a hard time making it anywhere come mid game (level 1000 or so).&lt;br /&gt; &lt;br /&gt; You can apply a prefix or suffix or both to items in your inventory. Therefore, you should be exploring and crafting at the same time to get items to enchant. Then enchant everything you have and finally, disenchant what you don’t need from the inventory to gain valuable gold dust, which we will talk about in the next quest.&lt;br /&gt; &lt;br /&gt; The game loop here is simple:&lt;br /&gt; &lt;br /&gt; Explore -&gt; Craft -&gt; Fill Inventory -&gt; Enchant everything -&gt; Disenchant everything -&gt; Repeat.&lt;br /&gt; &lt;br /&gt; This is the core game loop for you for the next little while and the requirements will prove that.&lt;br /&gt; &lt;br /&gt; Go to Port of Salix (X/Y) 432/208 to get the quest item to make enchanting slightly easier. If you enchant with two enchantments, you get double the XP if successful or half if you fail on one but succeed on the other. Alas this is going to be expensive. EXPLORE!</t>
+  </si>
+  <si>
+    <t>Luck of the roll</t>
+  </si>
+  <si>
+    <t>You have managed to create some fascinating gear for yourself. Alas you have started to notice that the creatures around you don’t really drop much. Where’s all their shiny objects and trinkets? Sure, you get the odd item here or there, but nothing of substance.&lt;br /&gt; &lt;br /&gt; Are you maybe just down on your luck?</t>
+  </si>
+  <si>
+    <t>This one is super easy. You have Enchanting to at least level 10 so now what I want you to do is craft yourself a set of gear, a whole set.&lt;br /&gt; &lt;br /&gt; If the gear you can currently craft is worse than the gear you can buy, than I suggest you buy similar or better gear then what you have on. Although, you should work on that crafting. Takes time and will pay off.&lt;br /&gt; &lt;br /&gt; Next Enchant all items that do not have an enchantment on that you plan to equip with: Treasure Goblin Luck. This gives you 5% towards Skill XP and Bonus for the Skill: Looting.&lt;br /&gt; &lt;br /&gt; Enchanting multiple items with the same enchant will stack unless otherwise stated by the enchantment.&lt;br /&gt; &lt;br /&gt; Once you have as many pieces as you can with this enchantment, equip them. Now change your skill in training to looting at the same 10% XP sacrifice. Explore for 2 hours this time.&lt;br /&gt; &lt;br /&gt; Looting essentially helps you get more drops. In some locations, like Special locations we use your looting skill but capped at 45%. The higher the looting skill the higher the chance for drops and quest drops.&lt;br /&gt; &lt;br /&gt; Click on the skill name, after setting it to be trained, to see what your current bonus, xp bonus is. Should be around 60% or so.</t>
   </si>
 </sst>
 </file>
@@ -443,9 +443,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3310" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="2633" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="2282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3215" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="24" bestFit="true" customWidth="true" style="0"/>
@@ -520,7 +520,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -538,15 +538,21 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -564,21 +570,18 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>182</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -590,33 +593,24 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+      <c r="L5">
+        <v>188</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -628,19 +622,16 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>75</v>
-      </c>
-      <c r="K6">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/guide-quests.xlsx
+++ b/resources/data-imports/guide-quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Exploring is hard work, but alas you have managed to slaughter quite the number of enemies. You even managed to gain a bit of notoriety and a shiny new item to boot.&lt;br /&gt; &lt;br /&gt; You spent the last week relaxing on the edge of town in a makeshift camp, not because you’re avoiding the town or the people, but because even a great warrior needs a moment to themselves, a moment to reflect. A moment to enjoy the sounds and sights as well as the smells of nature.&lt;br /&gt; &lt;br /&gt; You can hear the birds chirping in the trees, the glimmer of sunlight that dances through the treetops, the smell of the dying campfire and bits of crackling embers left.&lt;br /&gt; &lt;br /&gt; You are lost in thought, remembering a conversation you had with a passing blacksmith. He told you about the art of crafting, making your own gear and creating stronger and better gear. You laughed at him and said the shop is all you need.&lt;br /&gt; &lt;br /&gt; “Oh child, you are so naive if you think the gear you can buy in the shop is of any use. It only goes so far. You need better stronger and more durable gear.”&lt;br /&gt; &lt;br /&gt; You remember something about magic being involved to make the gear even more potent. There are words, incantations, enchantments you can apply. He laid so much information on you, only now do you have a moment to reflect on it.&lt;br /&gt; &lt;br /&gt; “Don’t worry about trying to enchant the gear, just focus on creating the gear. If you haven’t been yet – go to the: Ruined Port City of Kalize, there’s a treasure you can find there.”&lt;br /&gt; &lt;br /&gt; You rise to greet the afternoon breeze that gently makes its way through the forest, rustling the leaves as it passes filling your nose within the smells of summer.</t>
   </si>
   <si>
-    <t>Crafting is the second most set of essential skills behind Enchanting. &lt;br /&gt; &lt;br /&gt; The shop only goes up 2 Billion Gold, while you can at later levels craft to 36 Billion Gold (level 400, top end gear). &lt;br /&gt; &lt;br /&gt; While it is true that monsters drops will scale with you to a max crafting level of 300, you A) have to be in Purgatory to get those kinds of drops and B) it's all random loot, it could be good, could be bad, could be so-so. You need to spend time leveling crafting. You will out craft the shop some where in the level 200's of each crafting skill.&lt;br /&gt; &lt;br /&gt; For this Quest here’s what I want you to do:&lt;br /&gt; &lt;br /&gt; On PC, either move or teleport to these coordinates: (X/Y) 32/368&lt;br /&gt; &lt;br /&gt; On Mobile, select Map Movement from the primary action drop down. Open Teleport and enter in the coordinates if you do not have the gold. Kill till you do.&lt;br /&gt; &lt;br /&gt; Now that you are here, you should have seen chat update. You got a quest item. Quest items can be seen from the inventory under the quest items tab. This item will give you a slight boost to weapon crafting.&lt;br /&gt; &lt;br /&gt; Now that you have it.&lt;br /&gt; &lt;br /&gt; On Pc, click the blue drop down to select craft. Now select weapons from the list. Select Broken Dagger and Click Craft. Repeat the clicking of the button. Pay attention to the sever messages tab as you craft.&lt;br /&gt; &lt;br /&gt; There is no automation for any form of crafting.&lt;br /&gt; &lt;br /&gt; For Mobile, click the actions drop down and select craft, now follow the same steps above.&lt;br /&gt; You will fail more than you succeed at first, but the quest item should help you a bit. If you would like to see how much:&lt;br /&gt; &lt;br /&gt; Click Character Sheet Tab, Click the crafting skills Tab for the skills section (mobile, select Skill Management, then tap the crafting skills tab) Click on Weapon Crafting to see the skill bonus (applied to your chance to craft) and Skill XP Bonus. You care about the bonus to succeed and the XP bonus to level quickly.&lt;br /&gt; &lt;br /&gt; For now, focus on crafting broken daggers, as you gain levels you unlock new items. Click the help button associated with the crafting action to learn more.&lt;br /&gt; &lt;br /&gt; Because there is not automation for any of the crafting options, it is suggested players put on some Netflix, turn on automation, then go back to craft while automation runs.</t>
+    <t>Crafting is the second most set of essential skills behind Enchanting. &lt;br /&gt; &lt;br /&gt; The shop only goes up 2 Billion Gold, while you can at later levels craft to 36 Billion Gold (level 400, top end gear). &lt;br /&gt; &lt;br /&gt; While it is true that monsters drops will scale with you to a max crafting level of 300, you A) have to be in Purgatory to get those kinds of drops and B) it's all random loot, it could be good, could be bad, could be so-so. You need to spend time leveling crafting. You will out craft the shop some where in the level 200's of each crafting skill. Each plane has a limit on its max level of gear that is not displayed any where to player.&lt;br /&gt; &lt;br /&gt; For this Quest here’s what I want you to do:&lt;br /&gt; &lt;br /&gt; On PC, either move or teleport to these coordinates: (X/Y) 32/368&lt;br /&gt; &lt;br /&gt; On Mobile, select Map Movement from the primary action drop down. Open Teleport and enter in the coordinates if you do not have the gold. Kill till you do.&lt;br /&gt; &lt;br /&gt; Now that you are here, you should have seen chat update. You got a quest item. Quest items can be seen from the inventory under the quest items tab. This item will give you a slight boost to weapon crafting.&lt;br /&gt; &lt;br /&gt; Now that you have it.&lt;br /&gt; &lt;br /&gt; On Pc, click the blue drop down to select craft. Now select weapons from the list. Select Broken Dagger and Click Craft. Repeat the clicking of the button. Pay attention to the sever messages tab as you craft.&lt;br /&gt; &lt;br /&gt; There is no automation for any form of crafting.&lt;br /&gt; &lt;br /&gt; For Mobile, click the actions drop down and select craft, now follow the same steps above.&lt;br /&gt; You will fail more than you succeed at first, but the quest item should help you a bit. If you would like to see how much:&lt;br /&gt; &lt;br /&gt; Click Character Sheet Tab, Click the crafting skills Tab for the skills section (mobile, select Skill Management, then tap the crafting skills tab) Click on Weapon Crafting to see the skill bonus (applied to your chance to craft) and Skill XP Bonus. You care about the bonus to succeed and the XP bonus to level quickly.&lt;br /&gt; &lt;br /&gt; For now, focus on crafting broken daggers, as you gain levels you unlock new items. Click the help button associated with the crafting action to learn more.&lt;br /&gt; &lt;br /&gt; Because there is not automation for any of the crafting options, it is suggested players put on some Netflix, turn on automation, then go back to craft while automation runs.</t>
   </si>
   <si>
     <t>The Enchantress</t>
@@ -98,7 +98,25 @@
     <t>You have managed to create some fascinating gear for yourself. Alas you have started to notice that the creatures around you don’t really drop much. Where’s all their shiny objects and trinkets? Sure, you get the odd item here or there, but nothing of substance.&lt;br /&gt; &lt;br /&gt; Are you maybe just down on your luck?</t>
   </si>
   <si>
-    <t>This one is super easy. You have Enchanting to at least level 10 so now what I want you to do is craft yourself a set of gear, a whole set.&lt;br /&gt; &lt;br /&gt; If the gear you can currently craft is worse than the gear you can buy, than I suggest you buy similar or better gear then what you have on. Although, you should work on that crafting. Takes time and will pay off.&lt;br /&gt; &lt;br /&gt; Next Enchant all items that do not have an enchantment on that you plan to equip with: Treasure Goblin Luck. This gives you 5% towards Skill XP and Bonus for the Skill: Looting.&lt;br /&gt; &lt;br /&gt; Enchanting multiple items with the same enchant will stack unless otherwise stated by the enchantment.&lt;br /&gt; &lt;br /&gt; Once you have as many pieces as you can with this enchantment, equip them. Now change your skill in training to looting at the same 10% XP sacrifice. Explore for 2 hours this time.&lt;br /&gt; &lt;br /&gt; Looting essentially helps you get more drops. In some locations, like Special locations we use your looting skill but capped at 45%. The higher the looting skill the higher the chance for drops and quest drops.&lt;br /&gt; &lt;br /&gt; Click on the skill name, after setting it to be trained, to see what your current bonus, xp bonus is. Should be around 60% or so.</t>
+    <t>This one is super easy. You have Enchanting to at least level 5 so now what I want you to do is craft yourself a set of gear, a whole set.&lt;br /&gt; &lt;br /&gt; Craft 12 Items and enchant them with: Treasure Goblin Luck (unlocks at level 5 and is a prefix). This gives you 5% towards Skill XP and Bonus for the Skill: Looting. Equip them.&lt;br /&gt; &lt;br /&gt; Your looting should be roughly 60% for Bonus and XP bonus.&lt;br /&gt; &lt;br /&gt; Now change your skill in training to looting at the same 10% XP sacrifice. Explore for 2 hours this time.&lt;br /&gt; &lt;br /&gt; Looting essentially helps you get more drops. In some locations, like Special locations we use your looting skill but capped at 45%. The higher the looting skill the higher the chance for drops and quest drops.&lt;br /&gt; &lt;br /&gt; Enchanting multiple items with the same enchant will stack unless otherwise stated by the enchantment. Caution though, if you have that enchanting help docs page open, look at the intelligence required to enchant. If your intelligence is not high enough, even if you have the level, you wont see the enchantment. Things like Staves and Damage Spells can help raise your int, along with enchants to raise your int (filter the list in the help docs). You can also level your character to raise the int. Heretics are the best enchanters as well as Arcane Alchemists, but every one can do well at enchanting. Theres even enchantments to help with enchanting.</t>
+  </si>
+  <si>
+    <t>Quests for the wicked</t>
+  </si>
+  <si>
+    <t>A month has gone by, and you are exhausted. Emotionally, mentally, and physically. Crafting, Fighting, Enchanting, Disenchanting – all of it has worn you out.&lt;br /&gt; &lt;br /&gt; Sitting in the shade of an old oak tree in the middle of now where you bask in the warmth of the summer sun and the breeze that fills the sense with a fast-approaching autumn.&lt;br /&gt; &lt;br /&gt; “So, you have been busy child!”&lt;br /&gt; &lt;br /&gt; You turn around and see The Guide standing there. His outfit matches this time. Brown t-shirt, pants, and shoes of nondescript origin.&lt;br /&gt; &lt;br /&gt; He also looks much younger than the last time you saw him, 25 if you had to guess. But how could an 80+ year old man become so young? What magics is this?&lt;br /&gt; &lt;br /&gt; He seems thin, slight build to his frame, mostly tall and thin with a clean-cut square jaw.&lt;br /&gt; &lt;br /&gt; “What have you been up to child? Have you managed to craft yourself some better gear? Maybe enchant said gear?”&lt;br /&gt; &lt;br /&gt; You tell him all about the adventures you have been on, the Blacksmith, Enchantress and of the adventures, notoriety, and ability to create specific enchantments.&lt;br /&gt; &lt;br /&gt; “Good, I am glad you have been busy! List, I do not have all the time in the world, alas there is a rumor I must follow up on.”&lt;br /&gt; &lt;br /&gt; You begin to ask, but he raises his hand: “Listen, there is a Helpless goblin not far from here. I need you to get The Book of Guidance from him. Simple task. Think you can manage that?”&lt;br /&gt; &lt;br /&gt; You stare at him for a moment, wondering why it’s so important but none the less agree to do as he asks.</t>
+  </si>
+  <si>
+    <t>This is easy. No matter if you are on mobile or PC, click the quests tab at the top. For mobile you can scroll this section.&lt;br /&gt; &lt;br /&gt; Either way, you should see a large quest tree. Quests are how you unlock features in Tlessa. Click on Hunting Expedition quest, which is where you must start to progress down the tree.&lt;br /&gt; &lt;br /&gt; Every quest has explicit instructions on how to complete them under the requirements tab. Each requirement will have a help icon beside it, click it to reveal explicit instructions on how to get each one.&lt;br /&gt; &lt;br /&gt; On the NPC tab, is information about the NPC. If the NPC is not on surface, there will be explicit instructions on how to access the NPC.&lt;br /&gt; &lt;br /&gt; There are a lot of quests in Tlessa which is what we use to tell a bit of a story and to gate content and plane access behind.&lt;br /&gt; &lt;br /&gt; For this Guide Quest, I want you to scroll (on mobile) to the far right, on pc, look for the quest name: Goblins Accuracy.&lt;br /&gt; &lt;br /&gt; I want you to work your way down the tree to complete this quest. Easy peasy lemon squeezy!</t>
+  </si>
+  <si>
+    <t>Using Quest Items</t>
+  </si>
+  <si>
+    <t>Walking through the streets, you flip through the book in your hands feverishly, hoping for some small semblance of what the contents were, before they magically – and before your eyes – changed.&lt;br /&gt; &lt;br /&gt; “Find the book?” Comes a familiar voice, breaking your concentration. You look up and see The Guide. You explain that you traded a Goddess Bow for this book, a book that you thought might explain something that’s been on the back of your mind. Your place in this world.&lt;br /&gt; &lt;br /&gt; You explain that the words have changed, magically, right before your eyes, as if someone wanted to hide the true meaning of their contents.&lt;br /&gt; &lt;br /&gt; The Guide stairs at you for a moment before asking for the book, which you hand over. He thumbs through the pages. “Yup, nothing but Accuracy information here. Seems useful since you still seem to be having issues hitting things. With this you should become skilled in no time.”&lt;br /&gt; &lt;br /&gt; He hands the book back to you, “You seem to have a lot of questions regarding The Creator. Why are you hunting these answers so?”&lt;br /&gt; &lt;br /&gt; You explain that since you met The Guide and other peoples on your travels, that something about this world doesn’t feel right. Something is off. You can feel a tear, a gnawing pain in the back of your neck. It’s as if the answers are all right there, but you cannot access them.&lt;br /&gt; &lt;br /&gt; “Hmmm.” The Guide begins. “I might know someone who might have some answers. As for The Creator, I have been researching his origins. Something about his “story” seems off. Why was he in Purgatory for so long and why did he have to escape? Was it a prison?”&lt;br /&gt; &lt;br /&gt; Both you and The Guide go silent for a long while, lost in thought. This isn’t a question of who am I? It’s becoming more of a question of where am I? Or is it?</t>
+  </si>
+  <si>
+    <t>This one is super easy. As you probably have seen by now, you have a lot of quest items, some you can trade with currencies to get other items that may or may not be further traded. Some effect your character, some do not.&lt;br /&gt; &lt;br /&gt; Always investigate the quest item you get to see if effects your character. The Book you got from that Goblin quest. I want you to use it.&lt;br /&gt; &lt;br /&gt; On your character sheet is a tab called Quest Items (for mobile, select Inventory Management from the drop down on the character sheet tab). Click this tab, look for the book you got, The Book of Guidance. Click it’s name to open a details modal.&lt;br /&gt; &lt;br /&gt; “With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.”&lt;br /&gt; &lt;br /&gt; I want you to train Accuracy for 2 hours (or more) until it’s level 50.&lt;br /&gt; &lt;br /&gt; Wait, how I use quest items – you scream. You don’t. They are used automatically. Train Accuracy, watch the levels go up. If you have been enchanting, enchant some Accuracy based gear for even MORE xp.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +461,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="2282" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="3215" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="17" bestFit="true" customWidth="true" style="0"/>
@@ -570,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>182</v>
@@ -599,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>188</v>
@@ -632,6 +650,58 @@
       </c>
       <c r="M6">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>58</v>
+      </c>
+      <c r="L7">
+        <v>310035</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/guide-quests.xlsx
+++ b/resources/data-imports/guide-quests.xlsx
@@ -116,7 +116,7 @@
     <t>Walking through the streets, you flip through the book in your hands feverishly, hoping for some small semblance of what the contents were, before they magically – and before your eyes – changed.&lt;br /&gt; &lt;br /&gt; “Find the book?” Comes a familiar voice, breaking your concentration. You look up and see The Guide. You explain that you traded a Goddess Bow for this book, a book that you thought might explain something that’s been on the back of your mind. Your place in this world.&lt;br /&gt; &lt;br /&gt; You explain that the words have changed, magically, right before your eyes, as if someone wanted to hide the true meaning of their contents.&lt;br /&gt; &lt;br /&gt; The Guide stairs at you for a moment before asking for the book, which you hand over. He thumbs through the pages. “Yup, nothing but Accuracy information here. Seems useful since you still seem to be having issues hitting things. With this you should become skilled in no time.”&lt;br /&gt; &lt;br /&gt; He hands the book back to you, “You seem to have a lot of questions regarding The Creator. Why are you hunting these answers so?”&lt;br /&gt; &lt;br /&gt; You explain that since you met The Guide and other peoples on your travels, that something about this world doesn’t feel right. Something is off. You can feel a tear, a gnawing pain in the back of your neck. It’s as if the answers are all right there, but you cannot access them.&lt;br /&gt; &lt;br /&gt; “Hmmm.” The Guide begins. “I might know someone who might have some answers. As for The Creator, I have been researching his origins. Something about his “story” seems off. Why was he in Purgatory for so long and why did he have to escape? Was it a prison?”&lt;br /&gt; &lt;br /&gt; Both you and The Guide go silent for a long while, lost in thought. This isn’t a question of who am I? It’s becoming more of a question of where am I? Or is it?</t>
   </si>
   <si>
-    <t>This one is super easy. As you probably have seen by now, you have a lot of quest items, some you can trade with currencies to get other items that may or may not be further traded. Some effect your character, some do not.&lt;br /&gt; &lt;br /&gt; Always investigate the quest item you get to see if effects your character. The Book you got from that Goblin quest. I want you to use it.&lt;br /&gt; &lt;br /&gt; On your character sheet is a tab called Quest Items (for mobile, select Inventory Management from the drop down on the character sheet tab). Click this tab, look for the book you got, The Book of Guidance. Click it’s name to open a details modal.&lt;br /&gt; &lt;br /&gt; “With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.”&lt;br /&gt; &lt;br /&gt; I want you to train Accuracy for 2 hours (or more) until it’s level 50.&lt;br /&gt; &lt;br /&gt; Wait, how I use quest items – you scream. You don’t. They are used automatically. Train Accuracy, watch the levels go up. If you have been enchanting, enchant some Accuracy based gear for even MORE xp.</t>
+    <t>This one is super easy. As you probably have seen by now, you have a lot of quest items, some you can trade with currencies to get other items that may or may not be further traded. Some effect your character, some do not.&lt;br /&gt; &lt;br /&gt; Always investigate the quest item you get to see if effects your character. The Book you got from that Goblin quest. I want you to use it.&lt;br /&gt; &lt;br /&gt; On your character sheet is a tab called Quest Items (for mobile, select Inventory Management from the drop down on the character sheet tab). Click this tab, look for the book you got, The Book of Guidance. Click it’s name to open a details modal.&lt;br /&gt; &lt;br /&gt; “With this quest item you will automatically gain 125% XP and 0% chance towards Accuracy.”&lt;br /&gt; &lt;br /&gt; I want you to train Accuracy for 2 hours (or more) until it’s level 30.&lt;br /&gt; &lt;br /&gt; Wait, how I use quest items – you scream. You don’t. They are used automatically. Train Accuracy, watch the levels go up. If you have been enchanting, enchant some Accuracy based gear for even MORE xp.</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>55</v>

--- a/resources/data-imports/guide-quests.xlsx
+++ b/resources/data-imports/guide-quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,12 @@
     <t>reward_level</t>
   </si>
   <si>
+    <t>gold_dust_reward</t>
+  </si>
+  <si>
+    <t>shards_reward</t>
+  </si>
+  <si>
     <t>Welcome to Tlessa</t>
   </si>
   <si>
@@ -107,7 +113,7 @@
     <t>A month has gone by, and you are exhausted. Emotionally, mentally, and physically. Crafting, Fighting, Enchanting, Disenchanting – all of it has worn you out.&lt;br /&gt; &lt;br /&gt; Sitting in the shade of an old oak tree in the middle of now where you bask in the warmth of the summer sun and the breeze that fills the sense with a fast-approaching autumn.&lt;br /&gt; &lt;br /&gt; “So, you have been busy child!”&lt;br /&gt; &lt;br /&gt; You turn around and see The Guide standing there. His outfit matches this time. Brown t-shirt, pants, and shoes of nondescript origin.&lt;br /&gt; &lt;br /&gt; He also looks much younger than the last time you saw him, 25 if you had to guess. But how could an 80+ year old man become so young? What magics is this?&lt;br /&gt; &lt;br /&gt; He seems thin, slight build to his frame, mostly tall and thin with a clean-cut square jaw.&lt;br /&gt; &lt;br /&gt; “What have you been up to child? Have you managed to craft yourself some better gear? Maybe enchant said gear?”&lt;br /&gt; &lt;br /&gt; You tell him all about the adventures you have been on, the Blacksmith, Enchantress and of the adventures, notoriety, and ability to create specific enchantments.&lt;br /&gt; &lt;br /&gt; “Good, I am glad you have been busy! List, I do not have all the time in the world, alas there is a rumor I must follow up on.”&lt;br /&gt; &lt;br /&gt; You begin to ask, but he raises his hand: “Listen, there is a Helpless goblin not far from here. I need you to get The Book of Guidance from him. Simple task. Think you can manage that?”&lt;br /&gt; &lt;br /&gt; You stare at him for a moment, wondering why it’s so important but none the less agree to do as he asks.</t>
   </si>
   <si>
-    <t>This is easy. No matter if you are on mobile or PC, click the quests tab at the top. For mobile you can scroll this section.&lt;br /&gt; &lt;br /&gt; Either way, you should see a large quest tree. Quests are how you unlock features in Tlessa. Click on Hunting Expedition quest, which is where you must start to progress down the tree.&lt;br /&gt; &lt;br /&gt; Every quest has explicit instructions on how to complete them under the requirements tab. Each requirement will have a help icon beside it, click it to reveal explicit instructions on how to get each one.&lt;br /&gt; &lt;br /&gt; On the NPC tab, is information about the NPC. If the NPC is not on surface, there will be explicit instructions on how to access the NPC.&lt;br /&gt; &lt;br /&gt; There are a lot of quests in Tlessa which is what we use to tell a bit of a story and to gate content and plane access behind.&lt;br /&gt; &lt;br /&gt; For this Guide Quest, I want you to scroll (on mobile) to the far right, on pc, look for the quest name: Goblins Accuracy.&lt;br /&gt; &lt;br /&gt; I want you to work your way down the tree to complete this quest. Easy peasy lemon squeezy!</t>
+    <t>This is easy. No matter if you are on mobile or PC, click the quests tab at the top. For mobile you can scroll this section.&lt;br /&gt; &lt;br /&gt; Either way, you should see a large quest tree. Quests are how you unlock features in Tlessa. Click on Hunting Expedition quest, which is where you must start to progress down the tree.&lt;br /&gt; &lt;br /&gt; Every quest has explicit instructions on how to complete them under the requirements tab. Each requirement will have a help icon beside it, click it to reveal explicit instructions on how to get each one.&lt;br /&gt; &lt;br /&gt; On the NPC tab, is information about the NPC. If the NPC is not on surface, there will be explicit instructions on how to access the NPC.&lt;br /&gt; &lt;br /&gt; There are a lot of quests in Tlessa which is what we use to tell a bit of a story and to gate content and plane access behind.&lt;br /&gt; &lt;br /&gt; For this Guide Quest, I want you to scroll (on mobile) to the far right, on pc, look for the quest name: Goblins Accuracy.&lt;br /&gt; &lt;br /&gt; You have been given 12,000 Gold Dust from the previous quest. This will be used as the currency requirements for this Guide quest. Should you need more, use enchanting to enchant items, disenchant them and get more gold dust over time.&lt;br /&gt; &lt;br /&gt; I want you to work your way down the tree to complete this quest. Easy peasy lemon squeezy!</t>
   </si>
   <si>
     <t>Using Quest Items</t>
@@ -452,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,9 +479,11 @@
     <col min="11" max="11" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="16" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,19 +523,25 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -536,18 +550,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -568,18 +582,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -597,18 +611,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -626,18 +640,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -651,19 +665,22 @@
       <c r="M6">
         <v>25</v>
       </c>
+      <c r="N6">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -678,18 +695,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>50</v>
